--- a/Justifications_AUC.xlsx
+++ b/Justifications_AUC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -72,9 +72,6 @@
     <t>AUC plus bas que 8X et 16X</t>
   </si>
   <si>
-    <t>à diviser pas 8 au lieu de 24</t>
-  </si>
-  <si>
     <t>Commentaires SLC</t>
   </si>
   <si>
@@ -112,16 +109,41 @@
   </si>
   <si>
     <t>"Normal" --&gt; CFU_OBS plus bas que les fortes concentrations</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>à diviser pas 8 au lieu de 24 ?</t>
+  </si>
+  <si>
+    <t>ok mais attention, AUC du contrôle apparait faible</t>
+  </si>
+  <si>
+    <t>&lt;-- erreur dans le data set : résolu</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>à diviser par 8 au lieu de 24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -164,11 +186,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -207,15 +235,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F26" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:F26"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" name="xCMI" dataDxfId="6"/>
-    <tableColumn id="3" name="Problèmes" dataDxfId="5"/>
-    <tableColumn id="4" name="Justifications" dataDxfId="4"/>
-    <tableColumn id="5" name="Commentaires SLC" dataDxfId="3"/>
-    <tableColumn id="6" name="Commentaires AV" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G26"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" name="xCMI" dataDxfId="5"/>
+    <tableColumn id="3" name="Problèmes" dataDxfId="4"/>
+    <tableColumn id="4" name="Justifications" dataDxfId="3"/>
+    <tableColumn id="5" name="Commentaires SLC" dataDxfId="2"/>
+    <tableColumn id="6" name="Commentaires AV" dataDxfId="1"/>
+    <tableColumn id="7" name="Colonne1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -484,24 +513,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="45.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,16 +542,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -535,10 +568,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -552,10 +591,16 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -569,10 +614,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -586,10 +634,13 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -603,10 +654,13 @@
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -620,10 +674,13 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -637,10 +694,13 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -654,10 +714,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -671,10 +734,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -685,13 +751,16 @@
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -702,13 +771,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -719,13 +791,16 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>16</v>
       </c>
@@ -739,10 +814,13 @@
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>16</v>
       </c>
@@ -756,10 +834,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -773,10 +854,13 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -790,10 +874,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>19</v>
       </c>
@@ -804,13 +891,16 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -821,13 +911,16 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -838,13 +931,16 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>29</v>
       </c>
@@ -858,10 +954,13 @@
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>29</v>
       </c>
@@ -875,10 +974,13 @@
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>29</v>
       </c>
@@ -892,10 +994,13 @@
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>31</v>
       </c>
@@ -906,13 +1011,16 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>35</v>
       </c>
@@ -923,13 +1031,16 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>35</v>
       </c>
@@ -940,20 +1051,24 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>